--- a/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2189,4 +2190,3442 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0893</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9605</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3892</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2806</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>149.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9828</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9340</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5509</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3964</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1802</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0309</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0044</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8524</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7746</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7666</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5544</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5119</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4925</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4652</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4520</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4089</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3949</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011040</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3917</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3467</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011041</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3164</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2508</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>48.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008154</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF联接A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>48.12</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008155</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF联接C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5628,4 +5629,1314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3082</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3065</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8629</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6505</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011040</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3526</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011041</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6939,4 +6940,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>89</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6948,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6959,17 +6960,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6979,14 +7000,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.02</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3819</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6995,14 +7038,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>89</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40.44</v>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7011,14 +7076,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.47</v>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -7027,13 +7114,1215 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7781</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7421</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6829</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6456</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>89</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>26</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>16.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8221,7 +8222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8232,17 +8233,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8252,14 +8273,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.44</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>155.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -8268,14 +8311,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.02</v>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6960</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -8284,14 +8349,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>89</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.44</v>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0260</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8300,14 +8387,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.47</v>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7117</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -8316,13 +8425,2637 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8709</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7916</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7342</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7039</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3883</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3283</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3229</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013714</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>方正富邦泰利12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013715</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>方正富邦泰利12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010144</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>89</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>26</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>16.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10938,7 +10939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10949,17 +10950,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10969,14 +10990,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>70</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.8</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>138.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9500</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -10985,14 +11028,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.44</v>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8397</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -11001,14 +11066,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.02</v>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8662</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -11017,14 +11104,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>89</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40.44</v>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5870</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -11033,14 +11142,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.47</v>
+          <t>012417</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7842</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -11049,13 +11180,1931 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7467</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6659</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6636</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6274</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6184</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4663</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2303</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519621</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519620</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010144</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519619</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>89</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>26</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>16.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>20.3</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>24.8</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>13.02</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>40.44</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D7" t="n">
-        <v>10.47</v>
+        <v>40.44</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>26</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>16.65</v>
       </c>
     </row>
@@ -600,6 +617,1392 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>117.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2733</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001257</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9501</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012417</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7483</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6915</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6811</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6494</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6335</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5265</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4675</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001258</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>517850</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深张江自主创新50ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>560900</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银新药ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2631,7 +4034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5347,7 +6750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6619,7 +8022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7929,7 +9332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11367,7 +12770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12069,7 +13472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600196-复星医药.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>13.76</v>
+        <v>15.78</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>20.3</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>24.8</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>13.02</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>40.44</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D8" t="n">
-        <v>10.47</v>
+        <v>40.44</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1074 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>26</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>16.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>158.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.4085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3492</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2694</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7890</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7788</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4540</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3174</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161629</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>融通中证精准医疗主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>50.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>50.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1678,1962 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>126.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6265</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8319</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7990</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7946</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6858</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6319</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5484</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5301</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3814</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>517850</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深张江自主创新50ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>560900</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159643</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰国证疫苗与生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016356</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏国证疫苗与生物科技指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银新药ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159646</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞国证疫苗与生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159645</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国国证疫苗与生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>016355</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏国证疫苗与生物科技指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015497</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰紫金中证医药50指数A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015498</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰紫金中证医药50指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2002,7 +5019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4034,7 +7051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6750,7 +9767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8022,7 +11039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9332,7 +12349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12770,7 +15787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13470,1048 +16487,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161726</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商国证生物医药指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>158.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9.4085</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159992</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华中证创新药产业ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>49.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.3492</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富中证生物科技主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>29.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2694</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富中证精准医疗主题指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7890</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达沪深300医药卫生ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>22.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7788</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富中证生物科技主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.46</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4540</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160219</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰国证医药卫生行业指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>16.65</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3696</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159938</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发中证全指医药卫生ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>17.83</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.18</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3174</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159929</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富中证医药卫生ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.74</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1621</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>501006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富中证精准医疗主题指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1593</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>165519</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>信诚中证800医药指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1066</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>510660</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏上证医药卫生ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>98.48</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0708</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>163118</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万医药生物指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0705</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>512120</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华安中证细分医药ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.10</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0579</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001267</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>泰达宏利蓝筹价值混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0516</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008551</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>西藏东财中证医药卫生指数A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>95.91</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0500</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>515950</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>富国中证医药50ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>99.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0474</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>515960</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>嘉实中证医药健康100策略ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>98.49</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0452</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>160635</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华中证医药卫生指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0280</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007613</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>嘉合医疗健康混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.37</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>161629</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>融通中证精准医疗主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004222</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>金信民旺债券A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>50.33</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008552</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>西藏东财中证医药卫生指数C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>95.91</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>512610</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>嘉实中证医药卫生ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>99.01</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004402</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>金信民旺债券C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>50.33</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>010366</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>鹏华中证医药卫生指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>